--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_4.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_4.xlsx
@@ -508,442 +508,442 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_9</t>
+          <t>model_1_4_6</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.900111516112356</v>
+        <v>0.8934157838101482</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6496837490010618</v>
+        <v>0.6810300390406334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6645535518327843</v>
+        <v>0.5648548531100746</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1480366663921719</v>
+        <v>0.8728799758831354</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4192105984788088</v>
+        <v>0.4473111545831507</v>
       </c>
       <c r="G2" t="n">
-        <v>2.342566383487914</v>
+        <v>2.132953597656905</v>
       </c>
       <c r="H2" t="n">
-        <v>1.199872494791521</v>
+        <v>1.556488959259954</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1108710812693001</v>
+        <v>0.2263260395463538</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5492226648061678</v>
+        <v>1.014631892782003</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6474647469004076</v>
+        <v>0.6688132434268558</v>
       </c>
       <c r="L2" t="n">
-        <v>1.058471307641548</v>
+        <v>0.6345684016347939</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6750286616127534</v>
+        <v>0.6972860078338127</v>
       </c>
       <c r="N2" t="n">
-        <v>131.7387637273283</v>
+        <v>35.60900166253237</v>
       </c>
       <c r="O2" t="n">
-        <v>210.9656923437614</v>
+        <v>56.32989068529178</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_8</t>
+          <t>model_1_4_7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8982185532509006</v>
+        <v>0.8940148330955653</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6481433682681927</v>
+        <v>0.6810014197959181</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6637005342821124</v>
+        <v>0.5671216601674787</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1493323862297348</v>
+        <v>0.8703002350741891</v>
       </c>
       <c r="F3" t="n">
-        <v>0.427154958660924</v>
+        <v>0.4447970728823965</v>
       </c>
       <c r="G3" t="n">
-        <v>2.35286691654141</v>
+        <v>2.133144974678096</v>
       </c>
       <c r="H3" t="n">
-        <v>1.202923689109475</v>
+        <v>1.548380721852645</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1107024615015874</v>
+        <v>0.230919041509665</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5543654846588395</v>
+        <v>1.024237819433714</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6535709285616398</v>
+        <v>0.6669310855571184</v>
       </c>
       <c r="L3" t="n">
-        <v>1.059579383462887</v>
+        <v>0.636622284899081</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6813947960688429</v>
+        <v>0.6953237226069569</v>
       </c>
       <c r="N3" t="n">
-        <v>131.7012168614817</v>
+        <v>35.62027423363485</v>
       </c>
       <c r="O3" t="n">
-        <v>210.9281454779147</v>
+        <v>56.34116325639426</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_7</t>
+          <t>model_1_4_5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8962782101773754</v>
+        <v>0.8927886369219157</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6465874778820941</v>
+        <v>0.6806677016949545</v>
       </c>
       <c r="D4" t="n">
-        <v>0.662842267062158</v>
+        <v>0.5625828306093512</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1490631267794728</v>
+        <v>0.8760333235895856</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4352981634574011</v>
+        <v>0.4499431559122108</v>
       </c>
       <c r="G4" t="n">
-        <v>2.363271162717469</v>
+        <v>2.13537654915587</v>
       </c>
       <c r="H4" t="n">
-        <v>1.205993661190059</v>
+        <v>1.564615852005608</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1107375018433661</v>
+        <v>0.2207117808749004</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5594938055038104</v>
+        <v>1.004637215806233</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6597712963272964</v>
+        <v>0.6707780228303628</v>
       </c>
       <c r="L4" t="n">
-        <v>1.060715194042512</v>
+        <v>0.6324181837322824</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6878591263268142</v>
+        <v>0.6993344319641812</v>
       </c>
       <c r="N4" t="n">
-        <v>131.6634480989202</v>
+        <v>35.59726804878385</v>
       </c>
       <c r="O4" t="n">
-        <v>210.8903767153533</v>
+        <v>56.31815707154326</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_6</t>
+          <t>model_1_4_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8942902976527943</v>
+        <v>0.8921420748043549</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6450181380486431</v>
+        <v>0.6801153509471025</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6619807718670649</v>
+        <v>0.5603043329462051</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1473569253171026</v>
+        <v>0.8794655970605212</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4436410070637825</v>
+        <v>0.4526566388054061</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373765345409902</v>
+        <v>2.139070121150097</v>
       </c>
       <c r="H5" t="n">
-        <v>1.209075179550546</v>
+        <v>1.572765906031796</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1109595400385958</v>
+        <v>0.2146009193744124</v>
       </c>
       <c r="J5" t="n">
-        <v>0.564597667774035</v>
+        <v>1.00373147394798</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6660638160595292</v>
+        <v>0.6727976209867318</v>
       </c>
       <c r="L5" t="n">
-        <v>1.061878850154462</v>
+        <v>0.6302013993292169</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6944195316513598</v>
+        <v>0.7014400085952113</v>
       </c>
       <c r="N5" t="n">
-        <v>131.6254791724919</v>
+        <v>35.58524282527382</v>
       </c>
       <c r="O5" t="n">
-        <v>210.8524077889249</v>
+        <v>56.30613184803323</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_5</t>
+          <t>model_1_4_8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.892255052023734</v>
+        <v>0.8945837378228348</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6434373037067147</v>
+        <v>0.6799219704625058</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6611183372961604</v>
+        <v>0.569354493666099</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1443540468959565</v>
+        <v>0.8689757092779062</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4521824975840456</v>
+        <v>0.4424095014435874</v>
       </c>
       <c r="G6" t="n">
-        <v>2.384336391933449</v>
+        <v>2.140363257341031</v>
       </c>
       <c r="H6" t="n">
-        <v>1.212160058003842</v>
+        <v>1.540394005895205</v>
       </c>
       <c r="I6" t="n">
-        <v>0.111350322557443</v>
+        <v>0.2332772433730794</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5696675212511042</v>
+        <v>1.032996714965939</v>
       </c>
       <c r="K6" t="n">
-        <v>0.672445163254258</v>
+        <v>0.6651387084237298</v>
       </c>
       <c r="L6" t="n">
-        <v>1.063070213449522</v>
+        <v>0.6385728153925767</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7010725460073779</v>
+        <v>0.6934550402682675</v>
       </c>
       <c r="N6" t="n">
-        <v>131.5873388498408</v>
+        <v>35.63103870392435</v>
       </c>
       <c r="O6" t="n">
-        <v>210.8142674662738</v>
+        <v>56.35192772668375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_4</t>
+          <t>model_1_4_3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8901722249507089</v>
+        <v>0.8914810160546859</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6418468084980926</v>
+        <v>0.6794511268626502</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6602572602279864</v>
+        <v>0.558016836226833</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1401740190771987</v>
+        <v>0.8830469894440686</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4609236772458856</v>
+        <v>0.455430960962404</v>
       </c>
       <c r="G7" t="n">
-        <v>2.394972040717062</v>
+        <v>2.143511790661301</v>
       </c>
       <c r="H7" t="n">
-        <v>1.215240080748583</v>
+        <v>1.58094814916031</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1118942945638895</v>
+        <v>0.2082245647453054</v>
       </c>
       <c r="J7" t="n">
-        <v>0.574691161841171</v>
+        <v>1.010497221225505</v>
       </c>
       <c r="K7" t="n">
-        <v>0.678913600722423</v>
+        <v>0.674856252073287</v>
       </c>
       <c r="L7" t="n">
-        <v>1.064289429297146</v>
+        <v>0.6279349121874944</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7078163582500743</v>
+        <v>0.703586279869075</v>
       </c>
       <c r="N7" t="n">
-        <v>131.5490456176229</v>
+        <v>35.57302228272084</v>
       </c>
       <c r="O7" t="n">
-        <v>210.775974234056</v>
+        <v>56.29391130548025</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_3</t>
+          <t>model_1_4_2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8880417313397038</v>
+        <v>0.8908082040693899</v>
       </c>
       <c r="C8" t="n">
-        <v>0.640248522259508</v>
+        <v>0.6787129340704185</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6594001593814636</v>
+        <v>0.5557221306173583</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1349293053596841</v>
+        <v>0.8867061891296344</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4698649031706811</v>
+        <v>0.4582546089350463</v>
       </c>
       <c r="G8" t="n">
-        <v>2.405659788153908</v>
+        <v>2.148448089262019</v>
       </c>
       <c r="H8" t="n">
-        <v>1.218305880779033</v>
+        <v>1.589156178070724</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1125768205105712</v>
+        <v>0.2017096810478163</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5796618083497469</v>
+        <v>1.017306154393529</v>
       </c>
       <c r="K8" t="n">
-        <v>0.685466923469456</v>
+        <v>0.6769450560681024</v>
       </c>
       <c r="L8" t="n">
-        <v>1.065536547508466</v>
+        <v>0.6256281282379081</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7146486695136967</v>
+        <v>0.7057640085743699</v>
       </c>
       <c r="N8" t="n">
-        <v>131.5106201313185</v>
+        <v>35.5606606692519</v>
       </c>
       <c r="O8" t="n">
-        <v>210.7375487477515</v>
+        <v>56.2815496920113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_2</t>
+          <t>model_1_4_1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8858634873658409</v>
+        <v>0.8901286882014291</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6386445529259498</v>
+        <v>0.67792245273222</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6585497743713116</v>
+        <v>0.5534244030454536</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1287412696576123</v>
+        <v>0.8904124475389186</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4790065271535127</v>
+        <v>0.4611063916691211</v>
       </c>
       <c r="G9" t="n">
-        <v>2.416385538473012</v>
+        <v>2.153734041610385</v>
       </c>
       <c r="H9" t="n">
-        <v>1.221347658652191</v>
+        <v>1.597375016365528</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1133821065858725</v>
+        <v>0.1951110134253378</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5845661148359429</v>
+        <v>1.024164810582022</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6921029743856854</v>
+        <v>0.6790481512154504</v>
       </c>
       <c r="L9" t="n">
-        <v>1.066811617151703</v>
+        <v>0.6232983595477569</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7215672308559491</v>
+        <v>0.7079566368361476</v>
       </c>
       <c r="N9" t="n">
-        <v>131.4720821100776</v>
+        <v>35.54825295616085</v>
       </c>
       <c r="O9" t="n">
-        <v>210.6990107265106</v>
+        <v>56.26914197892026</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_1</t>
+          <t>model_1_4_9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8836372260137838</v>
+        <v>0.8961366821584131</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6370366600776038</v>
+        <v>0.6773706840546612</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6577088251458225</v>
+        <v>0.5727492107628573</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1217110918683674</v>
+        <v>0.8683254957878502</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4883496698006252</v>
+        <v>0.4358921262769535</v>
       </c>
       <c r="G10" t="n">
-        <v>2.427137525353568</v>
+        <v>2.157423721297882</v>
       </c>
       <c r="H10" t="n">
-        <v>1.224355685270727</v>
+        <v>1.528251299677107</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1142969856449375</v>
+        <v>0.2344348913918424</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5893976714819187</v>
+        <v>1.051340053569327</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6988201984778525</v>
+        <v>0.6602212706941162</v>
       </c>
       <c r="L10" t="n">
-        <v>1.068114794528517</v>
+        <v>0.6438971959717021</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7285704210842905</v>
+        <v>0.6883282570340049</v>
       </c>
       <c r="N10" t="n">
-        <v>131.433447186484</v>
+        <v>35.66072096608333</v>
       </c>
       <c r="O10" t="n">
-        <v>210.660375802917</v>
+        <v>56.38160998884274</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8813626513213034</v>
+        <v>0.8894460846825591</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6354267601957755</v>
+        <v>0.6770924305230976</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6568807106440377</v>
+        <v>0.5511290592265289</v>
       </c>
       <c r="E11" t="n">
-        <v>0.113948082802187</v>
+        <v>0.8941308224917986</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4978955732021823</v>
+        <v>0.4639711326135436</v>
       </c>
       <c r="G11" t="n">
-        <v>2.437902933276261</v>
+        <v>2.159284403944687</v>
       </c>
       <c r="H11" t="n">
-        <v>1.227317802826773</v>
+        <v>1.60558532811414</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1153072324186173</v>
+        <v>0.1884907733610341</v>
       </c>
       <c r="J11" t="n">
-        <v>0.594137196437789</v>
+        <v>1.03103875605014</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7056171576727583</v>
+        <v>0.6811542649162109</v>
       </c>
       <c r="L11" t="n">
-        <v>1.069446252885091</v>
+        <v>0.6209580046259171</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7356567409037688</v>
+        <v>0.710152412157406</v>
       </c>
       <c r="N11" t="n">
-        <v>131.3947298326222</v>
+        <v>35.53586588577243</v>
       </c>
       <c r="O11" t="n">
-        <v>210.6216584490552</v>
+        <v>56.25675490853184</v>
       </c>
     </row>
   </sheetData>
